--- a/ExecutionTestData/RerunBatch5/TestData.xlsx
+++ b/ExecutionTestData/RerunBatch5/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="159">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -461,6 +461,9 @@
     <t>EndPoint</t>
   </si>
   <si>
+    <t>https://device.pcloudy.com</t>
+  </si>
+  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -473,61 +476,46 @@
     <t>121212</t>
   </si>
   <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13Pro_iOS_15.2.0_2d8ea</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13Pro_iOS_15.0.0_2d2ae</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.0.1_aa631</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12ProMax_iOS_14.6.0_de280</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
-  </si>
-  <si>
-    <t>15.2.0</t>
-  </si>
-  <si>
-    <t>14.4.0</t>
-  </si>
-  <si>
-    <t>14.6.0</t>
+    <t>APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE2020_iOS_14.0.1_967aa</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXS_iOS_14.3.0_33b29</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXSMax_iOS_15.0.0_9049f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXR_iOS_15.2.1_b3558</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXS_iOS_15.0.1_e1cb7</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXSMax_iOS_14.7.1_00b1e</t>
+  </si>
+  <si>
+    <t>14.0.0</t>
+  </si>
+  <si>
+    <t>14.0.1</t>
+  </si>
+  <si>
+    <t>14.7.1</t>
+  </si>
+  <si>
+    <t>14.3.0</t>
   </si>
   <si>
     <t>15.0.0</t>
   </si>
   <si>
-    <t>14.0.1</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_15.2.1_f9522</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
-  </si>
-  <si>
     <t>15.2.1</t>
   </si>
   <si>
-    <t>15.0.2</t>
+    <t>15.0.1</t>
   </si>
 </sst>
 </file>
@@ -686,13 +674,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1154,7 +1142,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1201,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,80 +1201,62 @@
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="11" width="17.140625" style="12"/>
+    <col min="8" max="8" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1311,17 +1281,8 @@
       <c r="H3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1346,157 +1307,112 @@
       <c r="H4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1521,17 +1437,8 @@
       <c r="H9" s="18">
         <v>7</v>
       </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1556,25 +1463,16 @@
       <c r="H10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K2">
+  <conditionalFormatting sqref="B2:H2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
-      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
+  <conditionalFormatting sqref="B2:H2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
+      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1677,7 +1575,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1742,7 +1640,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1858,7 +1756,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1884,7 +1782,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
